--- a/UXbot-select.xlsx
+++ b/UXbot-select.xlsx
@@ -62,6 +62,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">度，</t>
     </r>
@@ -81,6 +82,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">，</t>
     </r>
@@ -105,6 +107,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">度，</t>
     </r>
@@ -139,6 +142,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">度，</t>
     </r>
@@ -160,6 +164,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">升降台</t>
     </r>
@@ -179,6 +184,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">必配，可选型号）</t>
     </r>
@@ -208,6 +214,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">水平旋转</t>
     </r>
@@ -227,6 +234,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">度，俯仰</t>
     </r>
@@ -246,6 +254,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">度</t>
     </r>
@@ -254,7 +263,7 @@
     <t xml:space="preserve">视觉模组（选配）</t>
   </si>
   <si>
-    <t xml:space="preserve">Realsense D415</t>
+    <t xml:space="preserve">Realsense D435</t>
   </si>
   <si>
     <t xml:space="preserve">Minimum Depth Distance: 0.2m Maximum Range: 10m+ Varies depending on performance accuracy, scene and light conditions RGB Resolution: 1080p @ 30fps Product Dimension Length x Depth x Height: 99 mm x 25mm x 25mm Connectors: USB 3.0</t>
@@ -297,6 +306,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">自由度手臂</t>
     </r>
@@ -337,6 +347,7 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -422,15 +433,15 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.1012145748988"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -540,7 +551,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>1400</v>
+        <v>1480</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>23</v>
